--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_82.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2473118279569892</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['Bb', 'F', 'Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.16, 20.68)]</t>
+          <t>[['D', 'A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(72.64, 83.38)]</t>
+          <t>[('0:00:22.564557', '0:00:29.611814')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:37.738798', '0:00:47.769818')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2030075187969925</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
+          <t>[['B', 'E', 'B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:07.702000', '0:00:15.006000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:42.313129', '0:00:58.392947')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1596638655462185</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(111.87, 114.76)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(85.437167, 91.834264)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0945054945054945</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
+          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.78, 15.0), (16.04, 22.4)]</t>
+          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (17.581738, 30.271443)]</t>
+          <t>[('0:03:00.060000', '0:03:02.260000'), ('0:00:22.660000', '0:00:29.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:43.640000', '0:00:46.580000'), ('0:01:37.220000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07179487179487179</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'C:min', 'G']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1274853801169591</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['F#:sus4', 'F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.911369, 30.797628)]</t>
+          <t>[['B:sus4', 'B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.48, 13.42)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:04.406553', '0:00:06.577619')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:26.140430', '0:00:33.570816')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5230769230769231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(89.915646, 97.020952)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(22.58999, 28.202)]</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2870813397129187</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A:min', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.051451, 41.036031)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.34, 76.86)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.54, 15.24)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(56.454081, 61.864331)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.18, 53.36)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(22.1, 29.56)]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(51.28, 60.14)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(127.6, 133.42)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(24.64, 33.0), (13.48, 20.96)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.98, 31.92), (45.58, 49.6)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.776621, 32.769727), (1.829138, 15.586961)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.724648, 4.464603), (3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_75</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03129327056217114</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb:maj6', 'Eb:maj6', 'Eb:maj6']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb:maj6', 'Eb:maj6', 'Eb:maj6']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(192.68, 196.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.55, 41.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
